--- a/SchedulingData/dynamic15/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>235.9</v>
+        <v>243.62</v>
       </c>
       <c r="D2" t="n">
-        <v>292.04</v>
+        <v>336.74</v>
       </c>
       <c r="E2" t="n">
-        <v>12.436</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>292.04</v>
+        <v>238.84</v>
       </c>
       <c r="D3" t="n">
-        <v>363.52</v>
+        <v>282.9</v>
       </c>
       <c r="E3" t="n">
-        <v>8.907999999999999</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>363.52</v>
+        <v>209.16</v>
       </c>
       <c r="D4" t="n">
-        <v>419.54</v>
+        <v>280.22</v>
       </c>
       <c r="E4" t="n">
-        <v>5.436</v>
+        <v>14.468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>253.32</v>
+        <v>234.7</v>
       </c>
       <c r="D5" t="n">
-        <v>312.94</v>
+        <v>289.68</v>
       </c>
       <c r="E5" t="n">
-        <v>14.816</v>
+        <v>14.112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>209.06</v>
+        <v>280.22</v>
       </c>
       <c r="D6" t="n">
-        <v>252.48</v>
+        <v>344.56</v>
       </c>
       <c r="E6" t="n">
-        <v>13.912</v>
+        <v>11.124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>217.82</v>
+        <v>289.68</v>
       </c>
       <c r="D7" t="n">
-        <v>260.58</v>
+        <v>355.44</v>
       </c>
       <c r="E7" t="n">
-        <v>13.112</v>
+        <v>10.636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>312.94</v>
+        <v>245.62</v>
       </c>
       <c r="D8" t="n">
-        <v>399.82</v>
+        <v>301.54</v>
       </c>
       <c r="E8" t="n">
-        <v>10.728</v>
+        <v>10.016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>399.82</v>
+        <v>282.9</v>
       </c>
       <c r="D9" t="n">
-        <v>452.42</v>
+        <v>330.46</v>
       </c>
       <c r="E9" t="n">
-        <v>7.088</v>
+        <v>9.724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>452.42</v>
+        <v>301.54</v>
       </c>
       <c r="D10" t="n">
-        <v>528.28</v>
+        <v>344.94</v>
       </c>
       <c r="E10" t="n">
-        <v>3.612</v>
+        <v>7.296</v>
       </c>
     </row>
     <row r="11">
@@ -637,188 +637,188 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>252.48</v>
+        <v>336.74</v>
       </c>
       <c r="D11" t="n">
-        <v>295.5</v>
+        <v>382.7</v>
       </c>
       <c r="E11" t="n">
-        <v>10.74</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>206.54</v>
+        <v>382.7</v>
       </c>
       <c r="D12" t="n">
-        <v>278.16</v>
+        <v>420.82</v>
       </c>
       <c r="E12" t="n">
-        <v>12.864</v>
+        <v>6.268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>295.5</v>
+        <v>355.44</v>
       </c>
       <c r="D13" t="n">
-        <v>369.1</v>
+        <v>417.74</v>
       </c>
       <c r="E13" t="n">
-        <v>5.52</v>
+        <v>5.536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>260.58</v>
+        <v>344.94</v>
       </c>
       <c r="D14" t="n">
-        <v>301.64</v>
+        <v>404.94</v>
       </c>
       <c r="E14" t="n">
-        <v>10.136</v>
+        <v>2.436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>253.16</v>
+        <v>344.56</v>
       </c>
       <c r="D15" t="n">
-        <v>305.2</v>
+        <v>426.12</v>
       </c>
       <c r="E15" t="n">
-        <v>10.64</v>
+        <v>7.588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>278.16</v>
+        <v>404.94</v>
       </c>
       <c r="D16" t="n">
-        <v>323.44</v>
+        <v>481.97</v>
       </c>
       <c r="E16" t="n">
-        <v>8.976000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>323.44</v>
+        <v>481.97</v>
       </c>
       <c r="D17" t="n">
-        <v>395</v>
+        <v>537.27</v>
       </c>
       <c r="E17" t="n">
-        <v>5.44</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>305.2</v>
+        <v>209.38</v>
       </c>
       <c r="D18" t="n">
-        <v>345.1</v>
+        <v>287.68</v>
       </c>
       <c r="E18" t="n">
-        <v>8.279999999999999</v>
+        <v>14.732</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>419.54</v>
+        <v>420.82</v>
       </c>
       <c r="D19" t="n">
-        <v>453.28</v>
+        <v>463.62</v>
       </c>
       <c r="E19" t="n">
-        <v>3.192</v>
+        <v>4.108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>301.64</v>
+        <v>537.27</v>
       </c>
       <c r="D20" t="n">
-        <v>403.54</v>
+        <v>602.5700000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>5.036</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>369.1</v>
+        <v>463.62</v>
       </c>
       <c r="D21" t="n">
-        <v>443.32</v>
+        <v>527.22</v>
       </c>
       <c r="E21" t="n">
-        <v>1.208</v>
+        <v>1.828</v>
       </c>
     </row>
     <row r="22">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>443.32</v>
+        <v>527.22</v>
       </c>
       <c r="D22" t="n">
-        <v>522.7</v>
+        <v>595.46</v>
       </c>
       <c r="E22" t="n">
         <v>30</v>
@@ -861,21 +861,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>403.54</v>
+        <v>287.68</v>
       </c>
       <c r="D23" t="n">
-        <v>456.24</v>
+        <v>362.1</v>
       </c>
       <c r="E23" t="n">
-        <v>1.396</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="24">
@@ -884,207 +884,207 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>456.24</v>
+        <v>330.46</v>
       </c>
       <c r="D24" t="n">
-        <v>549.85</v>
+        <v>381.36</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>5.764</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>522.7</v>
+        <v>362.1</v>
       </c>
       <c r="D25" t="n">
-        <v>561.42</v>
+        <v>455.3</v>
       </c>
       <c r="E25" t="n">
-        <v>26.828</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>453.28</v>
+        <v>455.3</v>
       </c>
       <c r="D26" t="n">
-        <v>523.7</v>
+        <v>502.68</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>523.7</v>
+        <v>502.68</v>
       </c>
       <c r="D27" t="n">
-        <v>583.16</v>
+        <v>595.9</v>
       </c>
       <c r="E27" t="n">
-        <v>26.724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>561.42</v>
+        <v>426.12</v>
       </c>
       <c r="D28" t="n">
-        <v>608.62</v>
+        <v>460.74</v>
       </c>
       <c r="E28" t="n">
-        <v>23.748</v>
+        <v>5.256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>528.28</v>
+        <v>381.36</v>
       </c>
       <c r="D29" t="n">
-        <v>575.98</v>
+        <v>428.04</v>
       </c>
       <c r="E29" t="n">
-        <v>1.452</v>
+        <v>2.236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>575.98</v>
+        <v>417.74</v>
       </c>
       <c r="D30" t="n">
-        <v>674.38</v>
+        <v>475.54</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>1.896</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>549.85</v>
+        <v>475.54</v>
       </c>
       <c r="D31" t="n">
-        <v>614.87</v>
+        <v>573.05</v>
       </c>
       <c r="E31" t="n">
-        <v>25.688</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>608.62</v>
+        <v>573.05</v>
       </c>
       <c r="D32" t="n">
-        <v>682.9400000000001</v>
+        <v>619.35</v>
       </c>
       <c r="E32" t="n">
-        <v>21.416</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>614.87</v>
+        <v>460.74</v>
       </c>
       <c r="D33" t="n">
-        <v>673.1900000000001</v>
+        <v>502.72</v>
       </c>
       <c r="E33" t="n">
-        <v>21.476</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>395</v>
+        <v>619.35</v>
       </c>
       <c r="D34" t="n">
-        <v>446.88</v>
+        <v>670.41</v>
       </c>
       <c r="E34" t="n">
-        <v>2.372</v>
+        <v>23.584</v>
       </c>
     </row>
     <row r="35">
@@ -1093,55 +1093,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>345.1</v>
+        <v>602.5700000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>391.84</v>
+        <v>641.21</v>
       </c>
       <c r="E35" t="n">
-        <v>5.736</v>
+        <v>21.476</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>391.84</v>
+        <v>595.46</v>
       </c>
       <c r="D36" t="n">
-        <v>449.74</v>
+        <v>650.5599999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>3.576</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>583.16</v>
+        <v>502.72</v>
       </c>
       <c r="D37" t="n">
-        <v>638.8</v>
+        <v>565.34</v>
       </c>
       <c r="E37" t="n">
-        <v>23.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,93 +1150,93 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>446.88</v>
+        <v>565.34</v>
       </c>
       <c r="D38" t="n">
-        <v>514.14</v>
+        <v>630.26</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>514.14</v>
+        <v>428.04</v>
       </c>
       <c r="D39" t="n">
-        <v>573.34</v>
+        <v>510.37</v>
       </c>
       <c r="E39" t="n">
-        <v>24.78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>674.38</v>
+        <v>510.37</v>
       </c>
       <c r="D40" t="n">
-        <v>755.54</v>
+        <v>579.53</v>
       </c>
       <c r="E40" t="n">
-        <v>26.524</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>449.74</v>
+        <v>595.9</v>
       </c>
       <c r="D41" t="n">
-        <v>522.24</v>
+        <v>668.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.396</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>522.24</v>
+        <v>670.41</v>
       </c>
       <c r="D42" t="n">
-        <v>598.45</v>
+        <v>743.41</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>20.404</v>
       </c>
     </row>
     <row r="43">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>673.1900000000001</v>
+        <v>579.53</v>
       </c>
       <c r="D43" t="n">
-        <v>733.1900000000001</v>
+        <v>641.71</v>
       </c>
       <c r="E43" t="n">
-        <v>18.616</v>
+        <v>21.656</v>
       </c>
     </row>
     <row r="44">
@@ -1264,74 +1264,112 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>573.34</v>
+        <v>630.26</v>
       </c>
       <c r="D44" t="n">
-        <v>638.24</v>
+        <v>687.3</v>
       </c>
       <c r="E44" t="n">
-        <v>19.92</v>
+        <v>24.084</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>638.8</v>
+        <v>650.5599999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>708.6</v>
+        <v>713.1799999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>20.38</v>
+        <v>24.468</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>682.9400000000001</v>
+        <v>668.8</v>
       </c>
       <c r="D46" t="n">
-        <v>734</v>
+        <v>728.6</v>
       </c>
       <c r="E46" t="n">
-        <v>17.44</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond33</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>641.71</v>
+      </c>
+      <c r="D47" t="n">
+        <v>692.55</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.692</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
         <v>1</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>pond32</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>598.45</v>
-      </c>
-      <c r="D47" t="n">
-        <v>639.65</v>
-      </c>
-      <c r="E47" t="n">
-        <v>26.58</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pond58</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>641.21</v>
+      </c>
+      <c r="D48" t="n">
+        <v>724.21</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17.276</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>pond50</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>724.21</v>
+      </c>
+      <c r="D49" t="n">
+        <v>756.05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.732</v>
       </c>
     </row>
   </sheetData>
